--- a/biology/Botanique/Cynomoriaceae/Cynomoriaceae.xlsx
+++ b/biology/Botanique/Cynomoriaceae/Cynomoriaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La petite famille des Cynomoriacées regroupe des plantes dicotylédones. Elle ne comprend que deux espèces du genre Cynomorium (en)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La petite famille des Cynomoriacées regroupe des plantes dicotylédones. Elle ne comprend que deux espèces du genre Cynomorium (en).
 </t>
         </is>
       </c>
@@ -513,12 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-Le nom vient du genre type Cynomorium, composé des mots grecs κυνός / kynos, chien, et μοριων / morion[2], pénis, littéralement « pénis de chien » en raison de la forme de ses inflorescences.
-Le genre Cynomorium est souvent confondu avec le genre Orobanche (Orobanchaceae)[2] probablement du fait du caractère parasitaire des deux plantes.
-Noms vernaculaires
-La plante est appelée « champignon maltais trompeur » ou « champignon maltais », mais aussi « pouce du désert », « pouce rouge », « tarthuth » (arabe, berbère) et « suoyang » (chinois).
-			Cynomorium coccineum
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Cynomorium, composé des mots grecs κυνός / kynos, chien, et μοριων / morion, pénis, littéralement « pénis de chien » en raison de la forme de ses inflorescences.
+Le genre Cynomorium est souvent confondu avec le genre Orobanche (Orobanchaceae) probablement du fait du caractère parasitaire des deux plantes.
 </t>
         </is>
       </c>
@@ -544,15 +558,55 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante est appelée « champignon maltais trompeur » ou « champignon maltais », mais aussi « pouce du désert », « pouce rouge », « tarthuth » (arabe, berbère) et « suoyang » (chinois).
+			Cynomorium coccineum
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cynomoriaceae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cynomoriaceae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG II (2003)[3] en fait une famille de position incertaine.
-Mais un travail de recherche phylogénétique[4] de 2005 semble assez convaincant et l'Angiosperm Phylogeny Website [27 fév 2009] assigne cette famille à l'ordre des Saxifragales, plutôt que dans les Balanophorales comme auparavant.
-La classification phylogénétique APG III (2009)[5] lui conserve sa position incertaine.
-La classification phylogénétique APG IV (2016)[6] place cette famille dans l'ordre des Saxifragales.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG II (2003) en fait une famille de position incertaine.
+Mais un travail de recherche phylogénétique de 2005 semble assez convaincant et l'Angiosperm Phylogeny Website [27 fév 2009] assigne cette famille à l'ordre des Saxifragales, plutôt que dans les Balanophorales comme auparavant.
+La classification phylogénétique APG III (2009) lui conserve sa position incertaine.
+La classification phylogénétique APG IV (2016) place cette famille dans l'ordre des Saxifragales.
 </t>
         </is>
       </c>
